--- a/biology/Biologie cellulaire et moléculaire/Génomique_nutritionnelle/Génomique_nutritionnelle.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Génomique_nutritionnelle/Génomique_nutritionnelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9nomique_nutritionnelle</t>
+          <t>Génomique_nutritionnelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La génomique nutritionnelle est une science qui étudie la relation entre le génome humain, la nutrition et la santé.
 Elle peut être divisée en deux disciplines :    
 la nutrigénomique : elle étudie l'effet des nutriments sur la santé, avec les modifications sur l'expression du génome, le protéome, le métabolome et les changements physiologiques qui en résultent ;
-la nutrigénétique : elle étudie l'effet des variations génétiques sur l'interaction entre l'alimentation et la santé, avec des implications pour les sous-groupes sensibles[1]. Plus spécifiquement, la nutrigénétique étudie comment les différences individuelles dans les gènes influencent la réponse de l'organisme à l'alimentation et à la nutrition. Par exemple, les personnes souffrant d'un déficit enzymatique causé par des mutations de l'enzyme phénylalanine hydroxylase ne peuvent pas métaboliser les aliments contenant l'acide aminé phénylalanine et doivent modifier leur régime alimentaire pour en minimiser la consommation. Avec les données génomiques modernes sur les mutations génétiques graves, il est examiné si les pratiques alimentaires peuvent être plus étroitement personnalisées en fonction des profils génétiques individuels.</t>
+la nutrigénétique : elle étudie l'effet des variations génétiques sur l'interaction entre l'alimentation et la santé, avec des implications pour les sous-groupes sensibles. Plus spécifiquement, la nutrigénétique étudie comment les différences individuelles dans les gènes influencent la réponse de l'organisme à l'alimentation et à la nutrition. Par exemple, les personnes souffrant d'un déficit enzymatique causé par des mutations de l'enzyme phénylalanine hydroxylase ne peuvent pas métaboliser les aliments contenant l'acide aminé phénylalanine et doivent modifier leur régime alimentaire pour en minimiser la consommation. Avec les données génomiques modernes sur les mutations génétiques graves, il est examiné si les pratiques alimentaires peuvent être plus étroitement personnalisées en fonction des profils génétiques individuels.</t>
         </is>
       </c>
     </row>
